--- a/Maio/05_Maio_-_Itamar.xlsx
+++ b/Maio/05_Maio_-_Itamar.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Maio" sheetId="1" state="visible" r:id="rId2"/>
@@ -349,23 +349,6 @@
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
     Cotação de fechamento do mês</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K19" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="0"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
-    Pontuação de fechamento do Ibovespa no mês correspondente</t>
         </r>
       </text>
     </comment>
@@ -1499,7 +1482,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="43">
   <si>
     <t xml:space="preserve">CAPITAL</t>
   </si>
@@ -1582,6 +1565,27 @@
     <t xml:space="preserve">IBOVESPA</t>
   </si>
   <si>
+    <t xml:space="preserve">POSI3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VVAR3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITSA4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JHSF3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BBDC4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EQTL3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELET6</t>
+  </si>
+  <si>
     <t xml:space="preserve">CSNA3</t>
   </si>
   <si>
@@ -1601,9 +1605,6 @@
   </si>
   <si>
     <t xml:space="preserve">ECOR3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITSA4</t>
   </si>
   <si>
     <t xml:space="preserve">SANB4</t>
@@ -2068,9 +2069,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>727560</xdr:colOff>
+      <xdr:colOff>723240</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2084,7 +2085,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="85680" y="76320"/>
-          <a:ext cx="1454400" cy="1292040"/>
+          <a:ext cx="1450080" cy="1287720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2110,9 +2111,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>727200</xdr:colOff>
+      <xdr:colOff>723600</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2126,7 +2127,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="85680" y="76320"/>
-          <a:ext cx="1454040" cy="1292040"/>
+          <a:ext cx="1450440" cy="1287720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2152,9 +2153,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>727200</xdr:colOff>
+      <xdr:colOff>722880</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2168,7 +2169,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="85680" y="76320"/>
-          <a:ext cx="1454040" cy="1292040"/>
+          <a:ext cx="1449720" cy="1287720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2194,9 +2195,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>727200</xdr:colOff>
+      <xdr:colOff>722880</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2210,7 +2211,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="85680" y="76320"/>
-          <a:ext cx="1454040" cy="1292040"/>
+          <a:ext cx="1449720" cy="1287720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2236,9 +2237,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>727200</xdr:colOff>
+      <xdr:colOff>722880</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2252,7 +2253,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="85680" y="76320"/>
-          <a:ext cx="1454040" cy="1292040"/>
+          <a:ext cx="1449720" cy="1287720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2278,9 +2279,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>727200</xdr:colOff>
+      <xdr:colOff>722880</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2294,7 +2295,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="85680" y="76320"/>
-          <a:ext cx="1454040" cy="1292040"/>
+          <a:ext cx="1449720" cy="1287720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2320,9 +2321,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>727200</xdr:colOff>
+      <xdr:colOff>722880</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2336,7 +2337,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="85680" y="76320"/>
-          <a:ext cx="1454040" cy="1292040"/>
+          <a:ext cx="1449720" cy="1287720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2362,9 +2363,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>727200</xdr:colOff>
+      <xdr:colOff>722880</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2378,7 +2379,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="85680" y="76320"/>
-          <a:ext cx="1454040" cy="1292040"/>
+          <a:ext cx="1449720" cy="1287720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2400,8 +2401,8 @@
   </sheetPr>
   <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4281,8 +4282,8 @@
   </sheetPr>
   <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4344,7 +4345,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="4" t="n">
         <f aca="false">SUM(L8:L17)</f>
-        <v>0.0453047953714825</v>
+        <v>0.153941899558489</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>1</v>
@@ -4410,17 +4411,17 @@
       </c>
       <c r="E4" s="10" t="n">
         <f aca="false">IF(SUM(I8:I17)&lt;=D4,SUM(I8:I17),"VALOR ACIMA DO DISPONÍVEL")</f>
-        <v>102868.36</v>
+        <v>111648.121668672</v>
       </c>
       <c r="F4" s="11" t="n">
         <f aca="false">(E4*I2)+E4+(D4-E4)</f>
-        <v>116308.551668672</v>
+        <v>128835.445600485</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="12" t="n">
         <f aca="false">F4/100000-1</f>
-        <v>0.163085516686718</v>
+        <v>0.288354456004846</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>1</v>
@@ -4554,36 +4555,37 @@
         <v>27</v>
       </c>
       <c r="E8" s="18" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F8" s="19" t="n">
-        <v>16.71</v>
+        <v>4.06</v>
       </c>
       <c r="G8" s="20" t="n">
         <f aca="false">((E8*$D$4)/100)/F8</f>
-        <v>6.68151536018383</v>
+        <v>21.9996298854526</v>
       </c>
       <c r="H8" s="21" t="n">
-        <v>6.27</v>
+        <f aca="false">G8</f>
+        <v>21.9996298854526</v>
       </c>
       <c r="I8" s="22" t="n">
         <f aca="false">H8*F8*100</f>
-        <v>10477.17</v>
+        <v>8931.84973349376</v>
       </c>
       <c r="J8" s="23" t="n">
         <f aca="false">I8/$E$4</f>
-        <v>0.101850267662477</v>
+        <v>0.0800000000000001</v>
       </c>
       <c r="K8" s="28" t="n">
-        <v>15.86</v>
+        <v>5.28</v>
       </c>
       <c r="L8" s="24" t="n">
         <f aca="false">IFERROR((K8/F8-1)*J8,0)</f>
-        <v>-0.00518089332813317</v>
+        <v>0.0240394088669951</v>
       </c>
       <c r="M8" s="25" t="n">
         <f aca="false">IFERROR(L8/J8,0)</f>
-        <v>-0.0508677438659486</v>
+        <v>0.300492610837439</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -4598,7 +4600,7 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="26" t="n">
@@ -4608,36 +4610,37 @@
         <v>28</v>
       </c>
       <c r="E9" s="18" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F9" s="19" t="n">
-        <v>35.25</v>
+        <v>12.4</v>
       </c>
       <c r="G9" s="20" t="n">
         <f aca="false">((E9*$D$4)/100)/F9</f>
-        <v>3.1673226005297</v>
+        <v>7.20310462378529</v>
       </c>
       <c r="H9" s="21" t="n">
-        <v>2.97</v>
+        <f aca="false">G9</f>
+        <v>7.20310462378529</v>
       </c>
       <c r="I9" s="22" t="n">
         <f aca="false">H9*F9*100</f>
-        <v>10469.25</v>
+        <v>8931.84973349376</v>
       </c>
       <c r="J9" s="23" t="n">
         <f aca="false">I9/$E$4</f>
-        <v>0.101773276058839</v>
+        <v>0.0800000000000001</v>
       </c>
       <c r="K9" s="28" t="n">
-        <v>42.95</v>
+        <v>14.37</v>
       </c>
       <c r="L9" s="24" t="n">
         <f aca="false">IFERROR((K9/F9-1)*J9,0)</f>
-        <v>0.0222313255504414</v>
+        <v>0.0127096774193548</v>
       </c>
       <c r="M9" s="25" t="n">
         <f aca="false">IFERROR(L9/J9,0)</f>
-        <v>0.218439716312057</v>
+        <v>0.158870967741935</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -4662,36 +4665,37 @@
         <v>29</v>
       </c>
       <c r="E10" s="18" t="n">
-        <v>0.1</v>
+        <v>0.32</v>
       </c>
       <c r="F10" s="19" t="n">
-        <v>9.89</v>
+        <v>8.86</v>
       </c>
       <c r="G10" s="20" t="n">
         <f aca="false">((E10*$D$4)/100)/F10</f>
-        <v>11.288991068622</v>
+        <v>40.3243780293172</v>
       </c>
       <c r="H10" s="21" t="n">
-        <v>10.6</v>
+        <f aca="false">G10</f>
+        <v>40.3243780293172</v>
       </c>
       <c r="I10" s="22" t="n">
         <f aca="false">H10*F10*100</f>
-        <v>10483.4</v>
+        <v>35727.398933975</v>
       </c>
       <c r="J10" s="23" t="n">
         <f aca="false">I10/$E$4</f>
-        <v>0.101910830502207</v>
+        <v>0.32</v>
       </c>
       <c r="K10" s="28" t="n">
-        <v>10.19</v>
+        <v>9.75</v>
       </c>
       <c r="L10" s="24" t="n">
         <f aca="false">IFERROR((K10/F10-1)*J10,0)</f>
-        <v>0.00309132954000625</v>
+        <v>0.0321444695259594</v>
       </c>
       <c r="M10" s="25" t="n">
         <f aca="false">IFERROR(L10/J10,0)</f>
-        <v>0.0303336703741151</v>
+        <v>0.100451467268623</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -4706,7 +4710,7 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="26" t="n">
@@ -4716,36 +4720,37 @@
         <v>30</v>
       </c>
       <c r="E11" s="18" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="F11" s="19" t="n">
-        <v>43.47</v>
+        <v>4.78</v>
       </c>
       <c r="G11" s="20" t="n">
         <f aca="false">((E11*$D$4)/100)/F11</f>
-        <v>2.5683947933902</v>
+        <v>28.0288171553151</v>
       </c>
       <c r="H11" s="21" t="n">
-        <v>2.41</v>
+        <f aca="false">G11</f>
+        <v>28.0288171553151</v>
       </c>
       <c r="I11" s="22" t="n">
         <f aca="false">H11*F11*100</f>
-        <v>10476.27</v>
+        <v>13397.7746002406</v>
       </c>
       <c r="J11" s="23" t="n">
         <f aca="false">I11/$E$4</f>
-        <v>0.101841518616609</v>
+        <v>0.12</v>
       </c>
       <c r="K11" s="28" t="n">
-        <v>48.33</v>
+        <v>6.94</v>
       </c>
       <c r="L11" s="24" t="n">
         <f aca="false">IFERROR((K11/F11-1)*J11,0)</f>
-        <v>0.0113860082925401</v>
+        <v>0.0542259414225941</v>
       </c>
       <c r="M11" s="25" t="n">
         <f aca="false">IFERROR(L11/J11,0)</f>
-        <v>0.111801242236025</v>
+        <v>0.451882845188285</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -4760,7 +4765,7 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="26" t="n">
@@ -4770,36 +4775,37 @@
         <v>31</v>
       </c>
       <c r="E12" s="18" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F12" s="19" t="n">
-        <v>29</v>
+        <v>18.95</v>
       </c>
       <c r="G12" s="20" t="n">
         <f aca="false">((E12*$D$4)/100)/F12</f>
-        <v>3.8499352299542</v>
+        <v>8.83758219013235</v>
       </c>
       <c r="H12" s="21" t="n">
-        <v>3.62</v>
+        <f aca="false">G12</f>
+        <v>8.83758219013235</v>
       </c>
       <c r="I12" s="22" t="n">
         <f aca="false">H12*F12*100</f>
-        <v>10498</v>
+        <v>16747.2182503008</v>
       </c>
       <c r="J12" s="23" t="n">
         <f aca="false">I12/$E$4</f>
-        <v>0.102052759468509</v>
+        <v>0.15</v>
       </c>
       <c r="K12" s="28" t="n">
-        <v>34.66</v>
+        <v>20.95</v>
       </c>
       <c r="L12" s="24" t="n">
         <f aca="false">IFERROR((K12/F12-1)*J12,0)</f>
-        <v>0.0199178833997159</v>
+        <v>0.0158311345646438</v>
       </c>
       <c r="M12" s="25" t="n">
         <f aca="false">IFERROR(L12/J12,0)</f>
-        <v>0.195172413793103</v>
+        <v>0.105540897097625</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -4814,7 +4820,7 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="26" t="n">
@@ -4827,33 +4833,34 @@
         <v>0.1</v>
       </c>
       <c r="F13" s="19" t="n">
-        <v>18.9</v>
+        <v>20.05</v>
       </c>
       <c r="G13" s="20" t="n">
         <f aca="false">((E13*$D$4)/100)/F13</f>
-        <v>5.90730802479745</v>
+        <v>5.56848487125546</v>
       </c>
       <c r="H13" s="21" t="n">
-        <v>5.55</v>
+        <f aca="false">G13</f>
+        <v>5.56848487125546</v>
       </c>
       <c r="I13" s="22" t="n">
         <f aca="false">H13*F13*100</f>
-        <v>10489.5</v>
+        <v>11164.8121668672</v>
       </c>
       <c r="J13" s="23" t="n">
         <f aca="false">I13/$E$4</f>
-        <v>0.101970129590867</v>
+        <v>0.1</v>
       </c>
       <c r="K13" s="28" t="n">
-        <v>19.85</v>
+        <v>22.37</v>
       </c>
       <c r="L13" s="24" t="n">
         <f aca="false">IFERROR((K13/F13-1)*J13,0)</f>
-        <v>0.00512548270430288</v>
+        <v>0.011571072319202</v>
       </c>
       <c r="M13" s="25" t="n">
         <f aca="false">IFERROR(L13/J13,0)</f>
-        <v>0.0502645502645505</v>
+        <v>0.11571072319202</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -4878,36 +4885,37 @@
         <v>33</v>
       </c>
       <c r="E14" s="18" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F14" s="19" t="n">
-        <v>10.76</v>
+        <v>30.7</v>
       </c>
       <c r="G14" s="20" t="n">
         <f aca="false">((E14*$D$4)/100)/F14</f>
-        <v>10.376219485936</v>
+        <v>5.45511995123805</v>
       </c>
       <c r="H14" s="21" t="n">
-        <v>7.94</v>
+        <f aca="false">G14</f>
+        <v>5.45511995123805</v>
       </c>
       <c r="I14" s="22" t="n">
         <f aca="false">H14*F14*100</f>
-        <v>8543.44</v>
+        <v>16747.2182503008</v>
       </c>
       <c r="J14" s="23" t="n">
         <f aca="false">I14/$E$4</f>
-        <v>0.0830521649222366</v>
+        <v>0.15</v>
       </c>
       <c r="K14" s="28" t="n">
-        <v>11.85</v>
+        <v>31.4</v>
       </c>
       <c r="L14" s="24" t="n">
         <f aca="false">IFERROR((K14/F14-1)*J14,0)</f>
-        <v>0.00841327692985482</v>
+        <v>0.00342019543973941</v>
       </c>
       <c r="M14" s="25" t="n">
         <f aca="false">IFERROR(L14/J14,0)</f>
-        <v>0.101301115241636</v>
+        <v>0.0228013029315961</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -4922,46 +4930,35 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="26" t="n">
         <v>8</v>
       </c>
-      <c r="D15" s="27" t="s">
-        <v>34</v>
-      </c>
+      <c r="D15" s="27"/>
       <c r="E15" s="18" t="n">
         <v>0.1</v>
       </c>
-      <c r="F15" s="19" t="n">
-        <v>12.89</v>
-      </c>
-      <c r="G15" s="20" t="n">
-        <f aca="false">((E15*$D$4)/100)/F15</f>
-        <v>8.66160757708858</v>
-      </c>
-      <c r="H15" s="21" t="n">
-        <v>8.13</v>
-      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
       <c r="I15" s="22" t="n">
         <f aca="false">H15*F15*100</f>
-        <v>10479.57</v>
+        <v>0</v>
       </c>
       <c r="J15" s="23" t="n">
         <f aca="false">I15/$E$4</f>
-        <v>0.101873598451458</v>
-      </c>
-      <c r="K15" s="28" t="n">
-        <v>12.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K15" s="28"/>
       <c r="L15" s="24" t="n">
         <f aca="false">IFERROR((K15/F15-1)*J15,0)</f>
-        <v>-0.00339842104997105</v>
+        <v>0</v>
       </c>
       <c r="M15" s="25" t="n">
         <f aca="false">IFERROR(L15/J15,0)</f>
-        <v>-0.0333591931730023</v>
+        <v>0</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -4976,46 +4973,35 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="26" t="n">
         <v>9</v>
       </c>
-      <c r="D16" s="27" t="s">
-        <v>35</v>
-      </c>
+      <c r="D16" s="27"/>
       <c r="E16" s="18" t="n">
         <v>0.1</v>
       </c>
-      <c r="F16" s="19" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="G16" s="20" t="n">
-        <f aca="false">((E16*$D$4)/100)/F16</f>
-        <v>4.91841945676968</v>
-      </c>
-      <c r="H16" s="21" t="n">
-        <v>4.62</v>
-      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
       <c r="I16" s="22" t="n">
         <f aca="false">H16*F16*100</f>
-        <v>10487.4</v>
+        <v>0</v>
       </c>
       <c r="J16" s="23" t="n">
         <f aca="false">I16/$E$4</f>
-        <v>0.101949715150509</v>
-      </c>
-      <c r="K16" s="28" t="n">
-        <v>21.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K16" s="28"/>
       <c r="L16" s="24" t="n">
         <f aca="false">IFERROR((K16/F16-1)*J16,0)</f>
-        <v>-0.00651220647437171</v>
+        <v>0</v>
       </c>
       <c r="M16" s="25" t="n">
         <f aca="false">IFERROR(L16/J16,0)</f>
-        <v>-0.0638766519823788</v>
+        <v>0</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -5030,46 +5016,35 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="26" t="n">
         <v>10</v>
       </c>
-      <c r="D17" s="27" t="s">
-        <v>36</v>
-      </c>
+      <c r="D17" s="27"/>
       <c r="E17" s="18" t="n">
         <v>0.1</v>
       </c>
-      <c r="F17" s="19" t="n">
-        <v>53.94</v>
-      </c>
-      <c r="G17" s="20" t="n">
-        <f aca="false">((E17*$D$4)/100)/F17</f>
-        <v>2.06985765051301</v>
-      </c>
-      <c r="H17" s="21" t="n">
-        <v>1.94</v>
-      </c>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
       <c r="I17" s="22" t="n">
         <f aca="false">H17*F17*100</f>
-        <v>10464.36</v>
+        <v>0</v>
       </c>
       <c r="J17" s="23" t="n">
         <f aca="false">I17/$E$4</f>
-        <v>0.10172573957629</v>
-      </c>
-      <c r="K17" s="28" t="n">
-        <v>48.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K17" s="28"/>
       <c r="L17" s="24" t="n">
         <f aca="false">IFERROR((K17/F17-1)*J17,0)</f>
-        <v>-0.00976899019290286</v>
+        <v>0</v>
       </c>
       <c r="M17" s="25" t="n">
         <f aca="false">IFERROR(L17/J17,0)</f>
-        <v>-0.0960326288468669</v>
+        <v>0</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -5102,11 +5077,11 @@
       <c r="J18" s="30"/>
       <c r="K18" s="32" t="n">
         <f aca="false">F4</f>
-        <v>116308.551668672</v>
+        <v>128835.445600485</v>
       </c>
       <c r="L18" s="33" t="n">
         <f aca="false">(K18/F18-1)</f>
-        <v>0.0417421263371571</v>
+        <v>0.153941899558489</v>
       </c>
       <c r="M18" s="33"/>
       <c r="N18" s="1" t="s">
@@ -5133,18 +5108,18 @@
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
       <c r="F19" s="34" t="n">
-        <v>100967.2</v>
+        <v>87402.59</v>
       </c>
       <c r="G19" s="35"/>
       <c r="H19" s="35"/>
       <c r="I19" s="35"/>
       <c r="J19" s="36"/>
       <c r="K19" s="37" t="n">
-        <v>102673.28</v>
+        <v>97075.93</v>
       </c>
       <c r="L19" s="33" t="n">
         <f aca="false">(K19/F19-1)</f>
-        <v>0.0168973686504132</v>
+        <v>0.110675667620376</v>
       </c>
       <c r="M19" s="33"/>
       <c r="N19" s="1"/>
@@ -6313,7 +6288,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="9" t="n">
         <f aca="false">Junho!F4</f>
-        <v>116308.551668672</v>
+        <v>128835.445600485</v>
       </c>
       <c r="E4" s="10" t="n">
         <f aca="false">IF(SUM(I8:I17)&lt;=D4,SUM(I8:I17),"VALOR ACIMA DO DISPONÍVEL")</f>
@@ -6321,13 +6296,13 @@
       </c>
       <c r="F4" s="11" t="n">
         <f aca="false">(E4*I2)+E4+(D4-E4)</f>
-        <v>121148.551668672</v>
+        <v>133675.445600485</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="12" t="n">
         <f aca="false">F4/100000-1</f>
-        <v>0.211485516686718</v>
+        <v>0.336754456004846</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>1</v>
@@ -6458,7 +6433,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E8" s="18" t="n">
         <v>0.1</v>
@@ -6468,7 +6443,7 @@
       </c>
       <c r="G8" s="20" t="n">
         <f aca="false">((E8*$D$4)/100)/F8</f>
-        <v>6.96041601847228</v>
+        <v>7.71008052665976</v>
       </c>
       <c r="H8" s="21" t="n">
         <v>6</v>
@@ -6512,7 +6487,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E9" s="18" t="n">
         <v>0.1</v>
@@ -6522,7 +6497,7 @@
       </c>
       <c r="G9" s="20" t="n">
         <f aca="false">((E9*$D$4)/100)/F9</f>
-        <v>3.29953338067154</v>
+        <v>3.65490625816978</v>
       </c>
       <c r="H9" s="21" t="n">
         <v>3</v>
@@ -6566,7 +6541,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E10" s="18" t="n">
         <v>0.1</v>
@@ -6576,7 +6551,7 @@
       </c>
       <c r="G10" s="20" t="n">
         <f aca="false">((E10*$D$4)/100)/F10</f>
-        <v>11.7602175600275</v>
+        <v>13.0268397978245</v>
       </c>
       <c r="H10" s="21" t="n">
         <v>10</v>
@@ -6620,7 +6595,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E11" s="18" t="n">
         <v>0.1</v>
@@ -6630,7 +6605,7 @@
       </c>
       <c r="G11" s="20" t="n">
         <f aca="false">((E11*$D$4)/100)/F11</f>
-        <v>2.67560505333959</v>
+        <v>2.96377836670082</v>
       </c>
       <c r="H11" s="21" t="n">
         <v>2</v>
@@ -6674,7 +6649,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E12" s="18" t="n">
         <v>0.1</v>
@@ -6684,7 +6659,7 @@
       </c>
       <c r="G12" s="20" t="n">
         <f aca="false">((E12*$D$4)/100)/F12</f>
-        <v>4.01063971271282</v>
+        <v>4.44260157243051</v>
       </c>
       <c r="H12" s="21" t="n">
         <v>3</v>
@@ -6728,7 +6703,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E13" s="18" t="n">
         <v>0.1</v>
@@ -6738,7 +6713,7 @@
       </c>
       <c r="G13" s="20" t="n">
         <f aca="false">((E13*$D$4)/100)/F13</f>
-        <v>6.15389162268105</v>
+        <v>6.81669024341189</v>
       </c>
       <c r="H13" s="21" t="n">
         <v>5</v>
@@ -6782,7 +6757,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E14" s="18" t="n">
         <v>0.1</v>
@@ -6792,7 +6767,7 @@
       </c>
       <c r="G14" s="20" t="n">
         <f aca="false">((E14*$D$4)/100)/F14</f>
-        <v>10.8093449506201</v>
+        <v>11.9735544238369</v>
       </c>
       <c r="H14" s="21" t="n">
         <v>7</v>
@@ -6836,7 +6811,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E15" s="18" t="n">
         <v>0.1</v>
@@ -6846,7 +6821,7 @@
       </c>
       <c r="G15" s="20" t="n">
         <f aca="false">((E15*$D$4)/100)/F15</f>
-        <v>9.02316149485429</v>
+        <v>9.99499190073582</v>
       </c>
       <c r="H15" s="21" t="n">
         <v>5</v>
@@ -6890,7 +6865,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E16" s="18" t="n">
         <v>0.1</v>
@@ -6900,7 +6875,7 @@
       </c>
       <c r="G16" s="20" t="n">
         <f aca="false">((E16*$D$4)/100)/F16</f>
-        <v>5.12372474311329</v>
+        <v>5.67557029077025</v>
       </c>
       <c r="H16" s="21" t="n">
         <v>3</v>
@@ -6944,7 +6919,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E17" s="18" t="n">
         <v>0.1</v>
@@ -6954,7 +6929,7 @@
       </c>
       <c r="G17" s="20" t="n">
         <f aca="false">((E17*$D$4)/100)/F17</f>
-        <v>2.15625791006066</v>
+        <v>2.38849546904866</v>
       </c>
       <c r="H17" s="21" t="n">
         <v>1</v>
@@ -7001,7 +6976,7 @@
       <c r="E18" s="29"/>
       <c r="F18" s="30" t="n">
         <f aca="false">D4</f>
-        <v>116308.551668672</v>
+        <v>128835.445600485</v>
       </c>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
@@ -7009,11 +6984,11 @@
       <c r="J18" s="30"/>
       <c r="K18" s="32" t="n">
         <f aca="false">F4</f>
-        <v>121148.551668672</v>
+        <v>133675.445600485</v>
       </c>
       <c r="L18" s="33" t="n">
         <f aca="false">(K18/F18-1)</f>
-        <v>0.0416134491450613</v>
+        <v>0.0375673012767674</v>
       </c>
       <c r="M18" s="33"/>
       <c r="N18" s="1" t="s">
@@ -8095,7 +8070,7 @@
   </sheetPr>
   <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -8220,7 +8195,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="9" t="n">
         <f aca="false">Julho!F4</f>
-        <v>121148.551668672</v>
+        <v>133675.445600485</v>
       </c>
       <c r="E4" s="10" t="n">
         <f aca="false">IF(SUM(I8:I17)&lt;=D4,SUM(I8:I17),"VALOR ACIMA DO DISPONÍVEL")</f>
@@ -8228,13 +8203,13 @@
       </c>
       <c r="F4" s="11" t="n">
         <f aca="false">(E4*I2)+E4+(D4-E4)</f>
-        <v>125988.551668672</v>
+        <v>138515.445600485</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="12" t="n">
         <f aca="false">F4/100000-1</f>
-        <v>0.259885516686718</v>
+        <v>0.385154456004846</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>1</v>
@@ -8365,7 +8340,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E8" s="18" t="n">
         <v>0.1</v>
@@ -8375,7 +8350,7 @@
       </c>
       <c r="G8" s="20" t="n">
         <f aca="false">((E8*$D$4)/100)/F8</f>
-        <v>7.25006293648544</v>
+        <v>7.99972744467293</v>
       </c>
       <c r="H8" s="21" t="n">
         <v>6</v>
@@ -8419,7 +8394,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E9" s="18" t="n">
         <v>0.1</v>
@@ -8429,7 +8404,7 @@
       </c>
       <c r="G9" s="20" t="n">
         <f aca="false">((E9*$D$4)/100)/F9</f>
-        <v>3.43683834521055</v>
+        <v>3.79221122270878</v>
       </c>
       <c r="H9" s="21" t="n">
         <v>3</v>
@@ -8473,7 +8448,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E10" s="18" t="n">
         <v>0.09</v>
@@ -8483,7 +8458,7 @@
       </c>
       <c r="G10" s="20" t="n">
         <f aca="false">((E10*$D$4)/100)/F10</f>
-        <v>11.0246406978569</v>
+        <v>12.1646007118742</v>
       </c>
       <c r="H10" s="21" t="n">
         <v>10</v>
@@ -8527,7 +8502,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E11" s="18" t="n">
         <v>0.09</v>
@@ -8537,7 +8512,7 @@
       </c>
       <c r="G11" s="20" t="n">
         <f aca="false">((E11*$D$4)/100)/F11</f>
-        <v>2.5082515873431</v>
+        <v>2.76760756936821</v>
       </c>
       <c r="H11" s="21" t="n">
         <v>2</v>
@@ -8581,7 +8556,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E12" s="18" t="n">
         <v>0.08</v>
@@ -8591,7 +8566,7 @@
       </c>
       <c r="G12" s="20" t="n">
         <f aca="false">((E12*$D$4)/100)/F12</f>
-        <v>3.34202901154957</v>
+        <v>3.68759849932371</v>
       </c>
       <c r="H12" s="21" t="n">
         <v>3</v>
@@ -8635,7 +8610,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E13" s="18" t="n">
         <v>0.09</v>
@@ -8645,7 +8620,7 @@
       </c>
       <c r="G13" s="20" t="n">
         <f aca="false">((E13*$D$4)/100)/F13</f>
-        <v>5.76897865088913</v>
+        <v>6.36549740954689</v>
       </c>
       <c r="H13" s="21" t="n">
         <v>5</v>
@@ -8689,7 +8664,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E14" s="18" t="n">
         <v>0.07</v>
@@ -8699,7 +8674,7 @@
       </c>
       <c r="G14" s="20" t="n">
         <f aca="false">((E14*$D$4)/100)/F14</f>
-        <v>7.88141135390987</v>
+        <v>8.69635798516164</v>
       </c>
       <c r="H14" s="21" t="n">
         <v>7</v>
@@ -8743,7 +8718,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E15" s="18" t="n">
         <v>0.07</v>
@@ -8753,7 +8728,7 @@
       </c>
       <c r="G15" s="20" t="n">
         <f aca="false">((E15*$D$4)/100)/F15</f>
-        <v>6.57905245679366</v>
+        <v>7.25933374091073</v>
       </c>
       <c r="H15" s="21" t="n">
         <v>5</v>
@@ -8797,7 +8772,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E16" s="18" t="n">
         <v>0.07</v>
@@ -8807,7 +8782,7 @@
       </c>
       <c r="G16" s="20" t="n">
         <f aca="false">((E16*$D$4)/100)/F16</f>
-        <v>3.73585842150089</v>
+        <v>4.12215030486076</v>
       </c>
       <c r="H16" s="21" t="n">
         <v>3</v>
@@ -8851,7 +8826,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E17" s="18" t="n">
         <v>0.08</v>
@@ -8861,7 +8836,7 @@
       </c>
       <c r="G17" s="20" t="n">
         <f aca="false">((E17*$D$4)/100)/F17</f>
-        <v>1.79678979115568</v>
+        <v>1.98257983834608</v>
       </c>
       <c r="H17" s="21" t="n">
         <v>1</v>
@@ -8908,7 +8883,7 @@
       <c r="E18" s="29"/>
       <c r="F18" s="30" t="n">
         <f aca="false">D4</f>
-        <v>121148.551668672</v>
+        <v>133675.445600485</v>
       </c>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
@@ -8916,11 +8891,11 @@
       <c r="J18" s="30"/>
       <c r="K18" s="32" t="n">
         <f aca="false">F4</f>
-        <v>125988.551668672</v>
+        <v>138515.445600485</v>
       </c>
       <c r="L18" s="33" t="n">
         <f aca="false">(K18/F18-1)</f>
-        <v>0.0399509522262955</v>
+        <v>0.0362070983063358</v>
       </c>
       <c r="M18" s="33"/>
       <c r="N18" s="1" t="s">
@@ -10127,7 +10102,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="9" t="n">
         <f aca="false">Agosto!F4</f>
-        <v>125988.551668672</v>
+        <v>138515.445600485</v>
       </c>
       <c r="E4" s="10" t="n">
         <f aca="false">IF(SUM(I8:I17)&lt;=D4,SUM(I8:I17),"VALOR ACIMA DO DISPONÍVEL")</f>
@@ -10135,13 +10110,13 @@
       </c>
       <c r="F4" s="11" t="n">
         <f aca="false">(E4*I2)+E4+(D4-E4)</f>
-        <v>130828.551668672</v>
+        <v>143355.445600485</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="12" t="n">
         <f aca="false">F4/100000-1</f>
-        <v>0.308285516686718</v>
+        <v>0.433554456004847</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>1</v>
@@ -10272,7 +10247,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E8" s="18" t="n">
         <v>0.1</v>
@@ -10282,7 +10257,7 @@
       </c>
       <c r="G8" s="20" t="n">
         <f aca="false">((E8*$D$4)/100)/F8</f>
-        <v>7.53970985449861</v>
+        <v>8.2893743626861</v>
       </c>
       <c r="H8" s="21" t="n">
         <v>6</v>
@@ -10326,7 +10301,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E9" s="18" t="n">
         <v>0.1</v>
@@ -10336,7 +10311,7 @@
       </c>
       <c r="G9" s="20" t="n">
         <f aca="false">((E9*$D$4)/100)/F9</f>
-        <v>3.57414330974955</v>
+        <v>3.92951618724779</v>
       </c>
       <c r="H9" s="21" t="n">
         <v>3</v>
@@ -10380,7 +10355,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E10" s="18" t="n">
         <v>0.09</v>
@@ -10390,7 +10365,7 @@
       </c>
       <c r="G10" s="20" t="n">
         <f aca="false">((E10*$D$4)/100)/F10</f>
-        <v>11.465085591689</v>
+        <v>12.6050456057064</v>
       </c>
       <c r="H10" s="21" t="n">
         <v>10</v>
@@ -10434,7 +10409,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E11" s="18" t="n">
         <v>0.09</v>
@@ -10444,7 +10419,7 @@
       </c>
       <c r="G11" s="20" t="n">
         <f aca="false">((E11*$D$4)/100)/F11</f>
-        <v>2.60845862668058</v>
+        <v>2.86781460870569</v>
       </c>
       <c r="H11" s="21" t="n">
         <v>2</v>
@@ -10488,7 +10463,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E12" s="18" t="n">
         <v>0.08</v>
@@ -10498,7 +10473,7 @@
       </c>
       <c r="G12" s="20" t="n">
         <f aca="false">((E12*$D$4)/100)/F12</f>
-        <v>3.47554625292888</v>
+        <v>3.82111574070302</v>
       </c>
       <c r="H12" s="21" t="n">
         <v>3</v>
@@ -10542,7 +10517,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E13" s="18" t="n">
         <v>0.09</v>
@@ -10552,7 +10527,7 @@
       </c>
       <c r="G13" s="20" t="n">
         <f aca="false">((E13*$D$4)/100)/F13</f>
-        <v>5.99945484136532</v>
+        <v>6.59597360002308</v>
       </c>
       <c r="H13" s="21" t="n">
         <v>5</v>
@@ -10596,7 +10571,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E14" s="18" t="n">
         <v>0.07</v>
@@ -10606,7 +10581,7 @@
       </c>
       <c r="G14" s="20" t="n">
         <f aca="false">((E14*$D$4)/100)/F14</f>
-        <v>8.19628124238571</v>
+        <v>9.01122787363748</v>
       </c>
       <c r="H14" s="21" t="n">
         <v>7</v>
@@ -10650,7 +10625,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E15" s="18" t="n">
         <v>0.07</v>
@@ -10660,7 +10635,7 @@
       </c>
       <c r="G15" s="20" t="n">
         <f aca="false">((E15*$D$4)/100)/F15</f>
-        <v>6.84189186718931</v>
+        <v>7.52217315130638</v>
       </c>
       <c r="H15" s="21" t="n">
         <v>5</v>
@@ -10704,7 +10679,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E16" s="18" t="n">
         <v>0.07</v>
@@ -10714,7 +10689,7 @@
       </c>
       <c r="G16" s="20" t="n">
         <f aca="false">((E16*$D$4)/100)/F16</f>
-        <v>3.88510952282248</v>
+        <v>4.27140140618235</v>
       </c>
       <c r="H16" s="21" t="n">
         <v>3</v>
@@ -10758,7 +10733,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E17" s="18" t="n">
         <v>0.08</v>
@@ -10768,7 +10743,7 @@
       </c>
       <c r="G17" s="20" t="n">
         <f aca="false">((E17*$D$4)/100)/F17</f>
-        <v>1.86857325426284</v>
+        <v>2.05436330145324</v>
       </c>
       <c r="H17" s="21" t="n">
         <v>1</v>
@@ -10815,7 +10790,7 @@
       <c r="E18" s="29"/>
       <c r="F18" s="30" t="n">
         <f aca="false">D4</f>
-        <v>125988.551668672</v>
+        <v>138515.445600485</v>
       </c>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
@@ -10823,11 +10798,11 @@
       <c r="J18" s="30"/>
       <c r="K18" s="32" t="n">
         <f aca="false">F4</f>
-        <v>130828.551668672</v>
+        <v>143355.445600485</v>
       </c>
       <c r="L18" s="33" t="n">
         <f aca="false">(K18/F18-1)</f>
-        <v>0.0384161888988801</v>
+        <v>0.0349419516287002</v>
       </c>
       <c r="M18" s="33"/>
       <c r="N18" s="1" t="s">
@@ -12034,7 +12009,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="9" t="n">
         <f aca="false">Setembro!F4</f>
-        <v>130828.551668672</v>
+        <v>143355.445600485</v>
       </c>
       <c r="E4" s="10" t="n">
         <f aca="false">IF(SUM(I8:I17)&lt;=D4,SUM(I8:I17),"VALOR ACIMA DO DISPONÍVEL")</f>
@@ -12042,13 +12017,13 @@
       </c>
       <c r="F4" s="11" t="n">
         <f aca="false">(E4*I2)+E4+(D4-E4)</f>
-        <v>135668.551668672</v>
+        <v>148195.445600485</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="12" t="n">
         <f aca="false">F4/100000-1</f>
-        <v>0.356685516686718</v>
+        <v>0.481954456004847</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>1</v>
@@ -12179,7 +12154,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E8" s="18" t="n">
         <v>0.1</v>
@@ -12189,7 +12164,7 @@
       </c>
       <c r="G8" s="20" t="n">
         <f aca="false">((E8*$D$4)/100)/F8</f>
-        <v>7.82935677251178</v>
+        <v>8.57902128069926</v>
       </c>
       <c r="H8" s="21" t="n">
         <v>6</v>
@@ -12233,7 +12208,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E9" s="18" t="n">
         <v>0.1</v>
@@ -12243,7 +12218,7 @@
       </c>
       <c r="G9" s="20" t="n">
         <f aca="false">((E9*$D$4)/100)/F9</f>
-        <v>3.71144827428856</v>
+        <v>4.0668211517868</v>
       </c>
       <c r="H9" s="21" t="n">
         <v>3</v>
@@ -12287,7 +12262,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E10" s="18" t="n">
         <v>0.09</v>
@@ -12297,7 +12272,7 @@
       </c>
       <c r="G10" s="20" t="n">
         <f aca="false">((E10*$D$4)/100)/F10</f>
-        <v>11.9055304855212</v>
+        <v>13.0454904995385</v>
       </c>
       <c r="H10" s="21" t="n">
         <v>10</v>
@@ -12341,7 +12316,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E11" s="18" t="n">
         <v>0.09</v>
@@ -12351,7 +12326,7 @@
       </c>
       <c r="G11" s="20" t="n">
         <f aca="false">((E11*$D$4)/100)/F11</f>
-        <v>2.70866566601805</v>
+        <v>2.96802164804316</v>
       </c>
       <c r="H11" s="21" t="n">
         <v>2</v>
@@ -12395,7 +12370,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E12" s="18" t="n">
         <v>0.08</v>
@@ -12405,7 +12380,7 @@
       </c>
       <c r="G12" s="20" t="n">
         <f aca="false">((E12*$D$4)/100)/F12</f>
-        <v>3.60906349430819</v>
+        <v>3.95463298208234</v>
       </c>
       <c r="H12" s="21" t="n">
         <v>3</v>
@@ -12449,7 +12424,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E13" s="18" t="n">
         <v>0.09</v>
@@ -12459,7 +12434,7 @@
       </c>
       <c r="G13" s="20" t="n">
         <f aca="false">((E13*$D$4)/100)/F13</f>
-        <v>6.22993103184151</v>
+        <v>6.82644979049927</v>
       </c>
       <c r="H13" s="21" t="n">
         <v>5</v>
@@ -12503,7 +12478,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E14" s="18" t="n">
         <v>0.07</v>
@@ -12513,7 +12488,7 @@
       </c>
       <c r="G14" s="20" t="n">
         <f aca="false">((E14*$D$4)/100)/F14</f>
-        <v>8.51115113086155</v>
+        <v>9.32609776211332</v>
       </c>
       <c r="H14" s="21" t="n">
         <v>7</v>
@@ -12557,7 +12532,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E15" s="18" t="n">
         <v>0.07</v>
@@ -12567,7 +12542,7 @@
       </c>
       <c r="G15" s="20" t="n">
         <f aca="false">((E15*$D$4)/100)/F15</f>
-        <v>7.10473127758497</v>
+        <v>7.78501256170204</v>
       </c>
       <c r="H15" s="21" t="n">
         <v>5</v>
@@ -12611,7 +12586,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E16" s="18" t="n">
         <v>0.07</v>
@@ -12621,7 +12596,7 @@
       </c>
       <c r="G16" s="20" t="n">
         <f aca="false">((E16*$D$4)/100)/F16</f>
-        <v>4.03436062414406</v>
+        <v>4.42065250750393</v>
       </c>
       <c r="H16" s="21" t="n">
         <v>3</v>
@@ -12665,7 +12640,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E17" s="18" t="n">
         <v>0.08</v>
@@ -12675,7 +12650,7 @@
       </c>
       <c r="G17" s="20" t="n">
         <f aca="false">((E17*$D$4)/100)/F17</f>
-        <v>1.94035671736999</v>
+        <v>2.1261467645604</v>
       </c>
       <c r="H17" s="21" t="n">
         <v>1</v>
@@ -12722,7 +12697,7 @@
       <c r="E18" s="29"/>
       <c r="F18" s="30" t="n">
         <f aca="false">D4</f>
-        <v>130828.551668672</v>
+        <v>143355.445600485</v>
       </c>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
@@ -12730,11 +12705,11 @@
       <c r="J18" s="30"/>
       <c r="K18" s="32" t="n">
         <f aca="false">F4</f>
-        <v>135668.551668672</v>
+        <v>148195.445600485</v>
       </c>
       <c r="L18" s="33" t="n">
         <f aca="false">(K18/F18-1)</f>
-        <v>0.0369949826568245</v>
+        <v>0.0337622333056571</v>
       </c>
       <c r="M18" s="33"/>
       <c r="N18" s="1" t="s">
@@ -13941,7 +13916,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="9" t="n">
         <f aca="false">Outubro!F4</f>
-        <v>135668.551668672</v>
+        <v>148195.445600485</v>
       </c>
       <c r="E4" s="10" t="n">
         <f aca="false">IF(SUM(I8:I17)&lt;=D4,SUM(I8:I17),"VALOR ACIMA DO DISPONÍVEL")</f>
@@ -13949,13 +13924,13 @@
       </c>
       <c r="F4" s="11" t="n">
         <f aca="false">(E4*I2)+E4+(D4-E4)</f>
-        <v>140508.551668672</v>
+        <v>153035.445600485</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="12" t="n">
         <f aca="false">F4/100000-1</f>
-        <v>0.405085516686718</v>
+        <v>0.530354456004847</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>1</v>
@@ -14086,7 +14061,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E8" s="18" t="n">
         <v>0.1</v>
@@ -14096,7 +14071,7 @@
       </c>
       <c r="G8" s="20" t="n">
         <f aca="false">((E8*$D$4)/100)/F8</f>
-        <v>8.11900369052494</v>
+        <v>8.86866819871243</v>
       </c>
       <c r="H8" s="21" t="n">
         <v>6</v>
@@ -14140,7 +14115,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E9" s="18" t="n">
         <v>0.1</v>
@@ -14150,7 +14125,7 @@
       </c>
       <c r="G9" s="20" t="n">
         <f aca="false">((E9*$D$4)/100)/F9</f>
-        <v>3.84875323882757</v>
+        <v>4.20412611632581</v>
       </c>
       <c r="H9" s="21" t="n">
         <v>3</v>
@@ -14194,7 +14169,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E10" s="18" t="n">
         <v>0.1</v>
@@ -14204,7 +14179,7 @@
       </c>
       <c r="G10" s="20" t="n">
         <f aca="false">((E10*$D$4)/100)/F10</f>
-        <v>13.7177504215037</v>
+        <v>14.9843726593008</v>
       </c>
       <c r="H10" s="21" t="n">
         <v>10</v>
@@ -14248,7 +14223,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E11" s="18" t="n">
         <v>0.1</v>
@@ -14258,7 +14233,7 @@
       </c>
       <c r="G11" s="20" t="n">
         <f aca="false">((E11*$D$4)/100)/F11</f>
-        <v>3.12096967261725</v>
+        <v>3.40914298597848</v>
       </c>
       <c r="H11" s="21" t="n">
         <v>2</v>
@@ -14302,7 +14277,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E12" s="18" t="n">
         <v>0.1</v>
@@ -14312,7 +14287,7 @@
       </c>
       <c r="G12" s="20" t="n">
         <f aca="false">((E12*$D$4)/100)/F12</f>
-        <v>4.67822591960937</v>
+        <v>5.11018777932706</v>
       </c>
       <c r="H12" s="21" t="n">
         <v>3</v>
@@ -14356,7 +14331,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E13" s="18" t="n">
         <v>0.1</v>
@@ -14366,7 +14341,7 @@
       </c>
       <c r="G13" s="20" t="n">
         <f aca="false">((E13*$D$4)/100)/F13</f>
-        <v>7.17823024701967</v>
+        <v>7.84102886775051</v>
       </c>
       <c r="H13" s="21" t="n">
         <v>5</v>
@@ -14410,7 +14385,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E14" s="18" t="n">
         <v>0.1</v>
@@ -14420,7 +14395,7 @@
       </c>
       <c r="G14" s="20" t="n">
         <f aca="false">((E14*$D$4)/100)/F14</f>
-        <v>12.6086014561963</v>
+        <v>13.7728109294131</v>
       </c>
       <c r="H14" s="21" t="n">
         <v>7</v>
@@ -14464,7 +14439,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E15" s="18" t="n">
         <v>0.1</v>
@@ -14474,7 +14449,7 @@
       </c>
       <c r="G15" s="20" t="n">
         <f aca="false">((E15*$D$4)/100)/F15</f>
-        <v>10.5251009828295</v>
+        <v>11.496931388711</v>
       </c>
       <c r="H15" s="21" t="n">
         <v>5</v>
@@ -14518,7 +14493,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E16" s="18" t="n">
         <v>0.1</v>
@@ -14528,7 +14503,7 @@
       </c>
       <c r="G16" s="20" t="n">
         <f aca="false">((E16*$D$4)/100)/F16</f>
-        <v>5.97658817923664</v>
+        <v>6.5284337268936</v>
       </c>
       <c r="H16" s="21" t="n">
         <v>3</v>
@@ -14572,7 +14547,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E17" s="18" t="n">
         <v>0.1</v>
@@ -14582,7 +14557,7 @@
       </c>
       <c r="G17" s="20" t="n">
         <f aca="false">((E17*$D$4)/100)/F17</f>
-        <v>2.51517522559644</v>
+        <v>2.74741278458444</v>
       </c>
       <c r="H17" s="21" t="n">
         <v>1</v>
@@ -14629,7 +14604,7 @@
       <c r="E18" s="29"/>
       <c r="F18" s="30" t="n">
         <f aca="false">D4</f>
-        <v>135668.551668672</v>
+        <v>148195.445600485</v>
       </c>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
@@ -14637,11 +14612,11 @@
       <c r="J18" s="30"/>
       <c r="K18" s="32" t="n">
         <f aca="false">F4</f>
-        <v>140508.551668672</v>
+        <v>153035.445600485</v>
       </c>
       <c r="L18" s="33" t="n">
         <f aca="false">(K18/F18-1)</f>
-        <v>0.0356751799917507</v>
+        <v>0.0326595731764119</v>
       </c>
       <c r="M18" s="33"/>
       <c r="N18" s="1" t="s">
@@ -15848,7 +15823,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="9" t="n">
         <f aca="false">Novembro!F4</f>
-        <v>140508.551668672</v>
+        <v>153035.445600485</v>
       </c>
       <c r="E4" s="10" t="n">
         <f aca="false">IF(SUM(I8:I17)&lt;=D4,SUM(I8:I17),"VALOR ACIMA DO DISPONÍVEL")</f>
@@ -15856,13 +15831,13 @@
       </c>
       <c r="F4" s="11" t="n">
         <f aca="false">(E4*I2)+E4+(D4-E4)</f>
-        <v>145684.551668672</v>
+        <v>158211.445600485</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="12" t="n">
         <f aca="false">F4/100000-1</f>
-        <v>0.456845516686718</v>
+        <v>0.582114456004846</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>1</v>
@@ -15993,7 +15968,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E8" s="18" t="n">
         <v>0.1</v>
@@ -16003,7 +15978,7 @@
       </c>
       <c r="G8" s="20" t="n">
         <f aca="false">((E8*$D$4)/100)/F8</f>
-        <v>8.40865060853811</v>
+        <v>9.15831511672559</v>
       </c>
       <c r="H8" s="21" t="n">
         <v>6</v>
@@ -16047,7 +16022,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E9" s="18" t="n">
         <v>0.1</v>
@@ -16057,7 +16032,7 @@
       </c>
       <c r="G9" s="20" t="n">
         <f aca="false">((E9*$D$4)/100)/F9</f>
-        <v>3.98605820336658</v>
+        <v>4.34143108086481</v>
       </c>
       <c r="H9" s="21" t="n">
         <v>3</v>
@@ -16101,7 +16076,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E10" s="18" t="n">
         <v>0.1</v>
@@ -16111,7 +16086,7 @@
       </c>
       <c r="G10" s="20" t="n">
         <f aca="false">((E10*$D$4)/100)/F10</f>
-        <v>14.2071336368728</v>
+        <v>15.4737558746698</v>
       </c>
       <c r="H10" s="21" t="n">
         <v>13</v>
@@ -16155,7 +16130,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E11" s="18" t="n">
         <v>0.1</v>
@@ -16165,7 +16140,7 @@
       </c>
       <c r="G11" s="20" t="n">
         <f aca="false">((E11*$D$4)/100)/F11</f>
-        <v>3.23231082743666</v>
+        <v>3.5204841407979</v>
       </c>
       <c r="H11" s="21" t="n">
         <v>3</v>
@@ -16209,7 +16184,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E12" s="18" t="n">
         <v>0.1</v>
@@ -16219,7 +16194,7 @@
       </c>
       <c r="G12" s="20" t="n">
         <f aca="false">((E12*$D$4)/100)/F12</f>
-        <v>4.84512247133351</v>
+        <v>5.2770843310512</v>
       </c>
       <c r="H12" s="21" t="n">
         <v>4</v>
@@ -16263,7 +16238,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E13" s="18" t="n">
         <v>0.1</v>
@@ -16273,7 +16248,7 @@
       </c>
       <c r="G13" s="20" t="n">
         <f aca="false">((E13*$D$4)/100)/F13</f>
-        <v>7.43431490310433</v>
+        <v>8.09711352383517</v>
       </c>
       <c r="H13" s="21" t="n">
         <v>7</v>
@@ -16317,7 +16292,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E14" s="18" t="n">
         <v>0.1</v>
@@ -16327,7 +16302,7 @@
       </c>
       <c r="G14" s="20" t="n">
         <f aca="false">((E14*$D$4)/100)/F14</f>
-        <v>13.0584155825903</v>
+        <v>14.2226250558071</v>
       </c>
       <c r="H14" s="21" t="n">
         <v>12</v>
@@ -16371,7 +16346,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E15" s="18" t="n">
         <v>0.1</v>
@@ -16381,7 +16356,7 @@
       </c>
       <c r="G15" s="20" t="n">
         <f aca="false">((E15*$D$4)/100)/F15</f>
-        <v>10.9005858548233</v>
+        <v>11.8724162607048</v>
       </c>
       <c r="H15" s="21" t="n">
         <v>10</v>
@@ -16425,7 +16400,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E16" s="18" t="n">
         <v>0.1</v>
@@ -16435,7 +16410,7 @@
       </c>
       <c r="G16" s="20" t="n">
         <f aca="false">((E16*$D$4)/100)/F16</f>
-        <v>6.18980403826748</v>
+        <v>6.74164958592443</v>
       </c>
       <c r="H16" s="21" t="n">
         <v>5</v>
@@ -16479,7 +16454,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E17" s="18" t="n">
         <v>0.1</v>
@@ -16489,7 +16464,7 @@
       </c>
       <c r="G17" s="20" t="n">
         <f aca="false">((E17*$D$4)/100)/F17</f>
-        <v>2.60490455448038</v>
+        <v>2.83714211346838</v>
       </c>
       <c r="H17" s="21" t="n">
         <v>3</v>
@@ -16536,7 +16511,7 @@
       <c r="E18" s="29"/>
       <c r="F18" s="30" t="n">
         <f aca="false">D4</f>
-        <v>140508.551668672</v>
+        <v>153035.445600485</v>
       </c>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
@@ -16544,11 +16519,11 @@
       <c r="J18" s="30"/>
       <c r="K18" s="32" t="n">
         <f aca="false">F4</f>
-        <v>145684.551668672</v>
+        <v>158211.445600485</v>
       </c>
       <c r="L18" s="33" t="n">
         <f aca="false">(K18/F18-1)</f>
-        <v>0.0368376154940757</v>
+        <v>0.0338222297435098</v>
       </c>
       <c r="M18" s="33"/>
       <c r="N18" s="1"/>
